--- a/dragon-verse/Excels/LandMark_大地图地标表.xlsx
+++ b/dragon-verse/Excels/LandMark_大地图地标表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81935A0-BFE5-4BF3-86B8-65772B790DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4DD89-508F-4378-BEC9-1DE881210B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>Maptext005</t>
+  </si>
+  <si>
+    <t>imgSymbol6</t>
+  </si>
+  <si>
+    <t>imgSymbol7</t>
+  </si>
+  <si>
+    <t>Maptext006</t>
+  </si>
+  <si>
+    <t>Maptext007</t>
+  </si>
+  <si>
+    <t>imgSymbol8</t>
+  </si>
+  <si>
+    <t>Maptext008</t>
   </si>
 </sst>
 </file>
@@ -640,7 +658,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -747,9 +765,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>

--- a/dragon-verse/Excels/LandMark_大地图地标表.xlsx
+++ b/dragon-verse/Excels/LandMark_大地图地标表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4DD89-508F-4378-BEC9-1DE881210B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7705A57-3A58-4565-855D-E8068F5FBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>int</t>
   </si>
@@ -59,36 +57,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>imgSymbol1</t>
-  </si>
-  <si>
-    <t>Maptext001</t>
-  </si>
-  <si>
-    <t>imgSymbol2</t>
-  </si>
-  <si>
-    <t>Maptext002</t>
-  </si>
-  <si>
-    <t>imgSymbol3</t>
-  </si>
-  <si>
-    <t>Maptext003</t>
-  </si>
-  <si>
-    <t>imgSymbol4</t>
-  </si>
-  <si>
-    <t>Maptext004</t>
-  </si>
-  <si>
-    <t>imgSymbol5</t>
-  </si>
-  <si>
-    <t>Maptext005</t>
-  </si>
-  <si>
     <t>imgSymbol6</t>
   </si>
   <si>
@@ -99,12 +67,6 @@
   </si>
   <si>
     <t>Maptext007</t>
-  </si>
-  <si>
-    <t>imgSymbol8</t>
-  </si>
-  <si>
-    <t>Maptext008</t>
   </si>
 </sst>
 </file>
@@ -655,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -718,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -726,77 +688,54 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
@@ -807,72 +746,35 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="21" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -880,12 +782,6 @@
     <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/dragon-verse/Excels/LandMark_大地图地标表.xlsx
+++ b/dragon-verse/Excels/LandMark_大地图地标表.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB3BB6-7131-495F-AFD5-5A579FAB2D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="5445" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,52 +20,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uiName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>地标UI的名称</t>
-  </si>
-  <si>
-    <t>地标的描述（多语言表key）</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>imgSymbol6</t>
-  </si>
-  <si>
-    <t>Maptext006</t>
-  </si>
-  <si>
-    <t>imgSymbol7</t>
-  </si>
-  <si>
-    <t>Maptext007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地标UI的名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地标的描述（多语言表key）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgSymbol6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maptext006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgSymbol7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maptext007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgSymbol4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maptext009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -81,8 +104,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -95,7 +120,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -103,92 +128,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -220,7 +274,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -244,7 +298,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -304,35 +358,36 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="51.875" customWidth="1"/>
-    <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="61" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -343,7 +398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -354,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -366,13 +421,13 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -382,8 +437,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -393,38 +448,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>

--- a/dragon-verse/Excels/LandMark_大地图地标表.xlsx
+++ b/dragon-verse/Excels/LandMark_大地图地标表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maptext009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgSymbol9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maptext010</t>
   </si>
 </sst>
 </file>
@@ -153,32 +159,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,117 +384,127 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="51.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.62"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
